--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3117117.567563684</v>
+        <v>3114575.935970004</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37.11181591693617</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>175.6809662669686</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.14553079462108</v>
+        <v>15.40229248514513</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>49.28585145925074</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.00803377962412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.0634900260875</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537565</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537565</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537565</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>176.5016825147134</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
     </row>
     <row r="6">
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.33851278921089</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611928</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>60.75779298935144</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>214.8251536000411</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.04816309430977</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>142.5375742161622</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>220.892030512648</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893172</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.1854048069368</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766847</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>192.4575684550924</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>179.2274338792762</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372656</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372652</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="W2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="X2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.3673327389939</v>
+        <v>199.4030692042959</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>409.3994882033917</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843279</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843279</v>
+        <v>30.55991817042189</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843279</v>
+        <v>30.55991817042189</v>
       </c>
       <c r="Y3" t="n">
-        <v>637.9238066331955</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.5856034905784</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>186.5856034905784</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>186.5856034905784</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349383</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295951</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242519</v>
+        <v>471.6341805242522</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>634.3723839608024</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575117</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575117</v>
+        <v>423.1417032603749</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575117</v>
+        <v>423.1417032603749</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410269</v>
+        <v>233.72191824389</v>
       </c>
       <c r="V4" t="n">
-        <v>426.5185539410269</v>
+        <v>233.72191824389</v>
       </c>
       <c r="W4" t="n">
-        <v>426.5185539410269</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="X4" t="n">
-        <v>237.0987689245421</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="Y4" t="n">
-        <v>186.5856034905784</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1098.875808495746</v>
+        <v>505.2532135715737</v>
       </c>
       <c r="C5" t="n">
-        <v>746.1182989464967</v>
+        <v>152.4957040223244</v>
       </c>
       <c r="D5" t="n">
-        <v>746.1182989464967</v>
+        <v>152.4957040223244</v>
       </c>
       <c r="E5" t="n">
-        <v>393.3607893972476</v>
+        <v>152.4957040223244</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6032798479985</v>
+        <v>145.5502032731209</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630052</v>
+        <v>132.8853181814229</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630052</v>
+        <v>132.8853181814229</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>80.99020340874665</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>211.2396305620545</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458677</v>
+        <v>409.7273242458682</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973848</v>
+        <v>662.2525653973853</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365779</v>
+        <v>923.4777373365783</v>
       </c>
       <c r="O5" t="n">
         <v>1156.809998477537</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169739</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815026</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815026</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815026</v>
+        <v>1249.420751151489</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815026</v>
+        <v>1036.295250913463</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815026</v>
+        <v>858.0107231208229</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815026</v>
+        <v>858.0107231208229</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815026</v>
+        <v>858.0107231208229</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815026</v>
+        <v>858.0107231208229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815026</v>
+        <v>505.2532135715737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.1634370159981</v>
+        <v>243.137396551782</v>
       </c>
       <c r="C6" t="n">
-        <v>333.7104077348711</v>
+        <v>68.68436727065497</v>
       </c>
       <c r="D6" t="n">
-        <v>333.7104077348711</v>
+        <v>68.68436727065497</v>
       </c>
       <c r="E6" t="n">
-        <v>174.4729527294155</v>
+        <v>68.68436727065497</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630052</v>
+        <v>68.68436727065497</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630052</v>
+        <v>68.68436727065497</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J6" t="n">
-        <v>40.717841591431</v>
+        <v>40.71784159143104</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379376</v>
+        <v>140.7147764379377</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824503</v>
+        <v>321.4955368824505</v>
       </c>
       <c r="M6" t="n">
-        <v>648.6148312576672</v>
+        <v>667.2331719916697</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668862</v>
+        <v>918.0571771705747</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.58763345997</v>
+        <v>1201.587633459971</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983954</v>
+        <v>1348.579058983955</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815026</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308347</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S6" t="n">
-        <v>1327.142681238295</v>
+        <v>1251.25426238711</v>
       </c>
       <c r="T6" t="n">
-        <v>1327.142681238295</v>
+        <v>1055.089856110122</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.142681238295</v>
+        <v>826.9645325423368</v>
       </c>
       <c r="V6" t="n">
-        <v>1091.990573006553</v>
+        <v>826.9645325423368</v>
       </c>
       <c r="W6" t="n">
-        <v>1091.990573006553</v>
+        <v>826.9645325423368</v>
       </c>
       <c r="X6" t="n">
-        <v>884.1390728010199</v>
+        <v>619.1130323368039</v>
       </c>
       <c r="Y6" t="n">
-        <v>676.378774036066</v>
+        <v>411.35273357185</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9043106789362</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="C7" t="n">
-        <v>325.9681277510293</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="D7" t="n">
-        <v>175.8514883386936</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="E7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630052</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874693</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208645</v>
+        <v>358.3569215208646</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014282</v>
+        <v>589.9861665014284</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750258</v>
+        <v>821.5424021750262</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767887</v>
@@ -4744,31 +4744,31 @@
         <v>1165.191378612033</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950959</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950959</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049273</v>
+        <v>835.031172013763</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556822</v>
+        <v>545.8883541201718</v>
       </c>
       <c r="V7" t="n">
-        <v>893.5478801556822</v>
+        <v>291.203865914285</v>
       </c>
       <c r="W7" t="n">
-        <v>676.5527755091759</v>
+        <v>291.203865914285</v>
       </c>
       <c r="X7" t="n">
-        <v>676.5527755091759</v>
+        <v>248.7309738998306</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.5527755091759</v>
+        <v>27.93839475630054</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813059</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148151</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252075</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251044</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084326</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681272</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460311</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5021,61 +5021,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.043492616109</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,34 +5650,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5887,25 +5887,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6227,25 +6227,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6506,7 +6506,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7734,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528946</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>82.97369176944363</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898924</v>
+        <v>41.92993463898918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>97.77758145636847</v>
+        <v>116.5839862381888</v>
       </c>
       <c r="N6" t="n">
-        <v>95.87235346496368</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>77.06594868314323</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>224.3355197601707</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039145</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.91627445172492</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>63.36835372228749</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738521.9829179465</v>
+        <v>738521.9829179464</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743698.4196487553</v>
+        <v>743698.4196487555</v>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312483</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312474</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427126</v>
+        <v>178997.5061427127</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731219</v>
+        <v>301519.8707731196</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245435</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28238008105184e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267297</v>
+        <v>41617.524452673</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019521</v>
+        <v>73739.30240019526</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289266</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806966</v>
+        <v>229588.1389806965</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.230697938</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029184</v>
+        <v>69851.97930029186</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207402.0027319241</v>
+        <v>-207402.0027319239</v>
       </c>
       <c r="C6" t="n">
         <v>239973.9242075472</v>
       </c>
       <c r="D6" t="n">
-        <v>178798.6747203427</v>
+        <v>178798.6747203456</v>
       </c>
       <c r="E6" t="n">
-        <v>84038.49516846206</v>
+        <v>84003.75724302389</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.1988675698</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930056</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="H6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.19886757</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930058</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="J6" t="n">
-        <v>542458.9920644609</v>
+        <v>542424.2541390258</v>
       </c>
       <c r="K6" t="n">
-        <v>549906.4123403328</v>
+        <v>549871.6744148972</v>
       </c>
       <c r="L6" t="n">
-        <v>517784.6343928103</v>
+        <v>517749.8964673745</v>
       </c>
       <c r="M6" t="n">
-        <v>458916.6430640792</v>
+        <v>458881.9051386433</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930054</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930056</v>
+        <v>591489.19886757</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930053</v>
+        <v>591489.1988675699</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.319475657867171e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.319475657867171e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.319475657867171e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.319475657867171e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.669691995571</v>
+        <v>687.6696919955713</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537565</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>139.1997510826665</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219706</v>
+        <v>246.3952001219678</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241317</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874366</v>
+        <v>161.7043472874367</v>
       </c>
       <c r="D4" t="n">
         <v>291.3548976462822</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874365</v>
+        <v>161.7043472874367</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462822</v>
+        <v>291.3548976462824</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874366</v>
+        <v>161.7043472874367</v>
       </c>
       <c r="L4" t="n">
         <v>291.3548976462822</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>279.7820101892861</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988673</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>173.5600024504444</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681185</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377089</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.5371649826833</v>
+        <v>190.2804032921592</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917619</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713033</v>
+        <v>98.73949432713025</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>237.2371468773403</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.5766195724707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.67035163739308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725102</v>
+        <v>16.0429573172508</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850525</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795491</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>74.6228102911748</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229683</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>57.61156671356625</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419589</v>
+        <v>38.47015094419588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.3214930216119</v>
       </c>
       <c r="S6" t="n">
-        <v>83.451027684286</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057117</v>
+        <v>5.686931024057088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>71.69784473654988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.6614922947274</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>269.0101285567918</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>106.8602279574869</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188339</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3375935296542</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.755522755434864e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.287859529147945e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-9.478485573907633e-15</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354052</v>
+        <v>2.764501274354053</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597845</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795347</v>
@@ -31288,37 +31288,37 @@
         <v>234.6335900342075</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776146</v>
+        <v>351.6549289776147</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526275</v>
+        <v>436.2590348526276</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904214</v>
+        <v>485.4222343904215</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361799</v>
+        <v>493.27687363618</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893217</v>
+        <v>465.7873640893218</v>
       </c>
       <c r="P5" t="n">
-        <v>397.538738878706</v>
+        <v>397.5387388787061</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909014</v>
+        <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
         <v>173.6556031751429</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934303</v>
+        <v>62.99607278934305</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483241</v>
+        <v>0.2211601019483242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782927</v>
       </c>
       <c r="H6" t="n">
         <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721918</v>
+        <v>50.9264819072192</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698202</v>
+        <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117052</v>
+        <v>321.1612085117053</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375862</v>
+        <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721261</v>
+        <v>384.6992930721262</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536202</v>
+        <v>351.9246960536203</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122941</v>
+        <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
         <v>188.8107426022557</v>
       </c>
       <c r="R6" t="n">
-        <v>91.8363411310312</v>
+        <v>91.83634113103123</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020039</v>
+        <v>27.4743504302004</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603109</v>
+        <v>5.961966480603111</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729783</v>
+        <v>0.09731174886729786</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319882</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
         <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871065</v>
+        <v>37.29198919871066</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261566</v>
+        <v>87.67224909261569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098917</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966487</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619611</v>
+        <v>194.3850573619612</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698599</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433958</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968701</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983759</v>
+        <v>55.75761141983761</v>
       </c>
       <c r="S7" t="n">
         <v>21.61086556648376</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457676</v>
+        <v>5.298438610457678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563001</v>
+        <v>0.06763964183563004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>543.083291701872</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>506.5665344352332</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,10 +34860,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175023</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005521</v>
       </c>
       <c r="N4" t="n">
         <v>187.52558716632</v>
@@ -34872,7 +34872,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752117</v>
+        <v>53.58768550752126</v>
       </c>
       <c r="K5" t="n">
-        <v>131.565077932634</v>
+        <v>131.5650779326342</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826403</v>
+        <v>200.4926198826404</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631486</v>
+        <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395889</v>
+        <v>263.8638100395891</v>
       </c>
       <c r="O5" t="n">
-        <v>235.689152667635</v>
+        <v>235.6891526676351</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234365</v>
+        <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645192</v>
+        <v>76.22934711645198</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669745</v>
+        <v>12.90853215669748</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954612</v>
+        <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>182.606828731831</v>
+        <v>182.6068287318311</v>
       </c>
       <c r="M6" t="n">
-        <v>330.4235296719363</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="N6" t="n">
-        <v>349.2299344537565</v>
+        <v>253.3575809887929</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091758</v>
+        <v>286.3944002923191</v>
       </c>
       <c r="P6" t="n">
         <v>148.4761873979639</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623417</v>
+        <v>48.82896851623423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>121.8029452840089</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569648</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238017</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
         <v>233.8951875490885</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574354</v>
+        <v>199.8619864574355</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617635</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963685</v>
+        <v>17.67608023963687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>522.015880398022</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875417</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>364.4325005132149</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
